--- a/Data/Output/Status Tracker.xlsx
+++ b/Data/Output/Status Tracker.xlsx
@@ -5,12 +5,12 @@
   <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Box\Personal_603214\External\RAJAT\Development\TSI-GF\Status Tracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\606395\Documents\UiPath\TEL_IntelProcess\Data\Temp\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603BA73C-8AA1-4306-83E8-4E0CB0AD52FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751FC0CE-3AF7-4A96-B178-903EE9C393F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <x:si>
     <x:t>PO Number</x:t>
   </x:si>
@@ -145,7 +145,7 @@
     <x:t>Success</x:t>
   </x:si>
   <x:si>
-    <x:t>10/03/2023 19:55:12</x:t>
+    <x:t>13/03/2023 10:27:58</x:t>
   </x:si>
   <x:si>
     <x:t>371003090066</x:t>
@@ -157,19 +157,91 @@
     <x:t>RS00521405 (S00906/EOXC703)</x:t>
   </x:si>
   <x:si>
-    <x:t>10/03/2023 19:55:29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10/03/2023 19:57:54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10/03/2023 19:58:12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10/03/2023 20:00:43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10/03/2023 20:01:00</x:t>
+    <x:t>13/03/2023 10:29:57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/03/2023 10:53:04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/03/2023 10:55:12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/03/2023 11:06:37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/03/2023 11:08:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/03/2023 11:21:33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/03/2023 11:23:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/03/2023 16:38:28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/03/2023 16:38:45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/03/2023 16:55:04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/03/2023 16:55:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/03/2023 17:23:43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/03/2023 17:24:08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/03/2023 17:29:45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/03/2023 17:30:06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/03/2023 17:32:22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/03/2023 17:32:44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/03/2023 19:45:25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/03/2023 19:45:45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/03/2023 20:29:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/03/2023 20:29:19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/03/2023 20:34:31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/03/2023 20:34:55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/03/2023 20:39:43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/03/2023 20:40:06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/03/2023 20:41:48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/03/2023 20:42:12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/03/2023 20:49:23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/03/2023 20:49:48</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -179,13 +251,19 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="3" x14ac:knownFonts="1">
+  <x:fonts count="4" x14ac:knownFonts="1">
     <x:font>
       <x:sz val="11"/>
       <x:color theme="1"/>
       <x:name val="Calibri"/>
       <x:family val="2"/>
       <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="9"/>
+      <x:name val="Arial"/>
+      <x:family val="2"/>
     </x:font>
     <x:font>
       <x:b/>
@@ -239,15 +317,15 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="21">
+  <x:cellStyleXfs count="93">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="0" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -256,78 +334,297 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="0" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="0" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="0" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="0" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="0" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="11">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center"/>
       <x:protection locked="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <x:protection locked="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center"/>
+      <x:protection locked="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" wrapText="1"/>
       <x:protection locked="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <x:alignment wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="0" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="0" hidden="0"/>
     </x:xf>
@@ -623,8 +920,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:AA1"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <x:selection activeCell="Y15" sqref="Y15 Y15:Y15"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="A3" sqref="A3 A3:A3"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -805,11 +1102,9 @@
       <x:c r="U2" s="6" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="V2" s="6" t="s"/>
       <x:c r="W2" s="6" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="X2" s="6" t="s"/>
       <x:c r="Y2" s="6" t="s">
         <x:v>38</x:v>
       </x:c>
@@ -1203,8 +1498,1853 @@
         <x:v>47</x:v>
       </x:c>
     </x:row>
+    <x:row r="8" spans="1:27">
+      <x:c r="A8" s="6" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B8" s="6" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C8" s="6" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D8" s="6" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E8" s="6" t="n">
+        <x:v>11008160</x:v>
+      </x:c>
+      <x:c r="F8" s="6" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G8" s="6" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H8" s="6" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I8" s="6" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J8" s="6" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+      <x:c r="K8" s="6" t="n">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="L8" s="6" t="n">
+        <x:v>4212</x:v>
+      </x:c>
+      <x:c r="M8" s="6" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+      <x:c r="N8" s="6" t="n">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="O8" s="6" t="n">
+        <x:v>4212</x:v>
+      </x:c>
+      <x:c r="P8" s="6" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="Q8" s="6" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="R8" s="6" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="S8" s="6" t="n">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="T8" s="6" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+      <x:c r="U8" s="6" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="V8" s="6" t="s"/>
+      <x:c r="W8" s="6" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="X8" s="6" t="s"/>
+      <x:c r="Y8" s="6" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="Z8" s="9" t="s"/>
+      <x:c r="AA8" s="6" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:27">
+      <x:c r="A9" s="6" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B9" s="6" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C9" s="6" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D9" s="6" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E9" s="6" t="n">
+        <x:v>11008161</x:v>
+      </x:c>
+      <x:c r="F9" s="6" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G9" s="6" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H9" s="6" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I9" s="6" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J9" s="6" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+      <x:c r="K9" s="6" t="n">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="L9" s="6" t="n">
+        <x:v>1944</x:v>
+      </x:c>
+      <x:c r="M9" s="6" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+      <x:c r="N9" s="6" t="n">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="O9" s="6" t="n">
+        <x:v>1944</x:v>
+      </x:c>
+      <x:c r="P9" s="6" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="Q9" s="6" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="R9" s="6" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="S9" s="6" t="n">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="T9" s="6" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+      <x:c r="U9" s="6" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="V9" s="6" t="s"/>
+      <x:c r="W9" s="6" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="X9" s="6" t="s"/>
+      <x:c r="Y9" s="6" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="Z9" s="9" t="s"/>
+      <x:c r="AA9" s="6" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:27">
+      <x:c r="A10" s="6" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B10" s="6" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C10" s="6" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D10" s="6" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E10" s="6" t="n">
+        <x:v>11008160</x:v>
+      </x:c>
+      <x:c r="F10" s="6" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G10" s="6" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H10" s="6" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I10" s="6" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J10" s="6" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+      <x:c r="K10" s="6" t="n">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="L10" s="6" t="n">
+        <x:v>4212</x:v>
+      </x:c>
+      <x:c r="M10" s="6" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+      <x:c r="N10" s="6" t="n">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="O10" s="6" t="n">
+        <x:v>4212</x:v>
+      </x:c>
+      <x:c r="P10" s="6" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="Q10" s="6" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="R10" s="6" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="S10" s="6" t="n">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="T10" s="6" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+      <x:c r="U10" s="6" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="V10" s="6" t="s"/>
+      <x:c r="W10" s="6" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="X10" s="6" t="s"/>
+      <x:c r="Y10" s="6" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="Z10" s="9" t="s"/>
+      <x:c r="AA10" s="6" t="s">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:27">
+      <x:c r="A11" s="6" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B11" s="6" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C11" s="6" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D11" s="6" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E11" s="6" t="n">
+        <x:v>11008161</x:v>
+      </x:c>
+      <x:c r="F11" s="6" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G11" s="6" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H11" s="6" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I11" s="6" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J11" s="6" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+      <x:c r="K11" s="6" t="n">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="L11" s="6" t="n">
+        <x:v>1944</x:v>
+      </x:c>
+      <x:c r="M11" s="6" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+      <x:c r="N11" s="6" t="n">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="O11" s="6" t="n">
+        <x:v>1944</x:v>
+      </x:c>
+      <x:c r="P11" s="6" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="Q11" s="6" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="R11" s="6" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="S11" s="6" t="n">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="T11" s="6" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+      <x:c r="U11" s="6" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="V11" s="6" t="s"/>
+      <x:c r="W11" s="6" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="X11" s="6" t="s"/>
+      <x:c r="Y11" s="6" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="Z11" s="9" t="s"/>
+      <x:c r="AA11" s="6" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:27">
+      <x:c r="A12" s="6" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B12" s="6" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C12" s="6" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D12" s="6" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E12" s="6" t="n">
+        <x:v>11008160</x:v>
+      </x:c>
+      <x:c r="F12" s="6" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G12" s="6" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H12" s="6" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I12" s="6" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J12" s="6" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+      <x:c r="K12" s="6" t="n">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="L12" s="6" t="n">
+        <x:v>4212</x:v>
+      </x:c>
+      <x:c r="M12" s="6" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+      <x:c r="N12" s="6" t="n">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="O12" s="6" t="n">
+        <x:v>4212</x:v>
+      </x:c>
+      <x:c r="P12" s="6" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="Q12" s="6" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="R12" s="6" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="S12" s="6" t="n">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="T12" s="6" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+      <x:c r="U12" s="6" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="V12" s="6" t="s"/>
+      <x:c r="W12" s="6" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="X12" s="6" t="s"/>
+      <x:c r="Y12" s="6" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="Z12" s="9" t="s"/>
+      <x:c r="AA12" s="6" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:27">
+      <x:c r="A13" s="6" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B13" s="6" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C13" s="6" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D13" s="6" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E13" s="6" t="n">
+        <x:v>11008161</x:v>
+      </x:c>
+      <x:c r="F13" s="6" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G13" s="6" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H13" s="6" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I13" s="6" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J13" s="6" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+      <x:c r="K13" s="6" t="n">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="L13" s="6" t="n">
+        <x:v>1944</x:v>
+      </x:c>
+      <x:c r="M13" s="6" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+      <x:c r="N13" s="6" t="n">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="O13" s="6" t="n">
+        <x:v>1944</x:v>
+      </x:c>
+      <x:c r="P13" s="6" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="Q13" s="6" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="R13" s="6" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="S13" s="6" t="n">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="T13" s="6" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+      <x:c r="U13" s="6" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="V13" s="6" t="s"/>
+      <x:c r="W13" s="6" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="X13" s="6" t="s"/>
+      <x:c r="Y13" s="6" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="Z13" s="9" t="s"/>
+      <x:c r="AA13" s="6" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:27">
+      <x:c r="A14" s="6" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B14" s="6" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C14" s="6" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D14" s="6" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E14" s="6" t="n">
+        <x:v>11008160</x:v>
+      </x:c>
+      <x:c r="F14" s="6" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G14" s="6" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H14" s="6" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I14" s="6" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J14" s="6" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+      <x:c r="K14" s="6" t="n">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="L14" s="6" t="n">
+        <x:v>4212</x:v>
+      </x:c>
+      <x:c r="M14" s="6" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+      <x:c r="N14" s="6" t="n">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="O14" s="6" t="n">
+        <x:v>4212</x:v>
+      </x:c>
+      <x:c r="P14" s="6" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="Q14" s="6" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="R14" s="6" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="S14" s="6" t="n">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="T14" s="6" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+      <x:c r="U14" s="6" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="V14" s="6" t="s"/>
+      <x:c r="W14" s="6" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="X14" s="6" t="s"/>
+      <x:c r="Y14" s="6" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="Z14" s="9" t="s"/>
+      <x:c r="AA14" s="6" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
     <x:row r="15" spans="1:27">
-      <x:c r="Y15" s="6" t="s"/>
+      <x:c r="A15" s="6" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B15" s="6" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C15" s="6" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D15" s="6" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E15" s="6" t="n">
+        <x:v>11008161</x:v>
+      </x:c>
+      <x:c r="F15" s="6" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G15" s="6" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H15" s="6" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I15" s="6" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J15" s="6" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+      <x:c r="K15" s="6" t="n">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="L15" s="6" t="n">
+        <x:v>1944</x:v>
+      </x:c>
+      <x:c r="M15" s="6" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+      <x:c r="N15" s="6" t="n">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="O15" s="6" t="n">
+        <x:v>1944</x:v>
+      </x:c>
+      <x:c r="P15" s="6" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="Q15" s="6" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="R15" s="6" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="S15" s="6" t="n">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="T15" s="6" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+      <x:c r="U15" s="6" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="V15" s="6" t="s"/>
+      <x:c r="W15" s="6" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="X15" s="6" t="s"/>
+      <x:c r="Y15" s="6" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="Z15" s="9" t="s"/>
+      <x:c r="AA15" s="6" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:27">
+      <x:c r="A16" s="6" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B16" s="6" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C16" s="6" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D16" s="6" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E16" s="6" t="n">
+        <x:v>11008160</x:v>
+      </x:c>
+      <x:c r="F16" s="6" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G16" s="6" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H16" s="6" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I16" s="6" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J16" s="6" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+      <x:c r="K16" s="6" t="n">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="L16" s="6" t="n">
+        <x:v>4212</x:v>
+      </x:c>
+      <x:c r="M16" s="6" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+      <x:c r="N16" s="6" t="n">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="O16" s="6" t="n">
+        <x:v>4212</x:v>
+      </x:c>
+      <x:c r="P16" s="6" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="Q16" s="6" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="R16" s="6" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="S16" s="6" t="n">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="T16" s="6" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+      <x:c r="U16" s="6" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="V16" s="6" t="s"/>
+      <x:c r="W16" s="6" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="X16" s="6" t="s"/>
+      <x:c r="Y16" s="6" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="Z16" s="9" t="s"/>
+      <x:c r="AA16" s="6" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:27">
+      <x:c r="A17" s="6" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B17" s="6" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C17" s="6" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D17" s="6" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E17" s="6" t="n">
+        <x:v>11008161</x:v>
+      </x:c>
+      <x:c r="F17" s="6" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G17" s="6" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H17" s="6" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I17" s="6" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J17" s="6" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+      <x:c r="K17" s="6" t="n">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="L17" s="6" t="n">
+        <x:v>1944</x:v>
+      </x:c>
+      <x:c r="M17" s="6" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+      <x:c r="N17" s="6" t="n">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="O17" s="6" t="n">
+        <x:v>1944</x:v>
+      </x:c>
+      <x:c r="P17" s="6" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="Q17" s="6" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="R17" s="6" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="S17" s="6" t="n">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="T17" s="6" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+      <x:c r="U17" s="6" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="V17" s="6" t="s"/>
+      <x:c r="W17" s="6" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="X17" s="6" t="s"/>
+      <x:c r="Y17" s="6" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="Z17" s="9" t="s"/>
+      <x:c r="AA17" s="6" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:27">
+      <x:c r="A18" s="6" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B18" s="6" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C18" s="6" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D18" s="6" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E18" s="6" t="n">
+        <x:v>11008160</x:v>
+      </x:c>
+      <x:c r="F18" s="6" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G18" s="6" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H18" s="6" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I18" s="6" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J18" s="6" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+      <x:c r="K18" s="6" t="n">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="L18" s="6" t="n">
+        <x:v>4212</x:v>
+      </x:c>
+      <x:c r="M18" s="6" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+      <x:c r="N18" s="6" t="n">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="O18" s="6" t="n">
+        <x:v>4212</x:v>
+      </x:c>
+      <x:c r="P18" s="6" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="Q18" s="6" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="R18" s="6" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="S18" s="6" t="n">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="T18" s="6" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+      <x:c r="U18" s="6" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="V18" s="6" t="s"/>
+      <x:c r="W18" s="6" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="X18" s="6" t="s"/>
+      <x:c r="Y18" s="6" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="Z18" s="9" t="s"/>
+      <x:c r="AA18" s="6" t="s">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:27">
+      <x:c r="A19" s="6" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B19" s="6" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C19" s="6" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D19" s="6" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E19" s="6" t="n">
+        <x:v>11008161</x:v>
+      </x:c>
+      <x:c r="F19" s="6" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G19" s="6" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H19" s="6" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I19" s="6" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J19" s="6" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+      <x:c r="K19" s="6" t="n">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="L19" s="6" t="n">
+        <x:v>1944</x:v>
+      </x:c>
+      <x:c r="M19" s="6" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+      <x:c r="N19" s="6" t="n">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="O19" s="6" t="n">
+        <x:v>1944</x:v>
+      </x:c>
+      <x:c r="P19" s="6" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="Q19" s="6" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="R19" s="6" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="S19" s="6" t="n">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="T19" s="6" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+      <x:c r="U19" s="6" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="V19" s="6" t="s"/>
+      <x:c r="W19" s="6" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="X19" s="6" t="s"/>
+      <x:c r="Y19" s="6" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="Z19" s="9" t="s"/>
+      <x:c r="AA19" s="6" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:27">
+      <x:c r="A20" s="6" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B20" s="6" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C20" s="6" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D20" s="6" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E20" s="6" t="n">
+        <x:v>11008160</x:v>
+      </x:c>
+      <x:c r="F20" s="6" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G20" s="6" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H20" s="6" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I20" s="6" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J20" s="6" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+      <x:c r="K20" s="6" t="n">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="L20" s="6" t="n">
+        <x:v>4212</x:v>
+      </x:c>
+      <x:c r="M20" s="6" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+      <x:c r="N20" s="6" t="n">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="O20" s="6" t="n">
+        <x:v>4212</x:v>
+      </x:c>
+      <x:c r="P20" s="6" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="Q20" s="6" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="R20" s="6" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="S20" s="6" t="n">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="T20" s="6" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+      <x:c r="U20" s="6" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="V20" s="6" t="s"/>
+      <x:c r="W20" s="6" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="X20" s="6" t="s"/>
+      <x:c r="Y20" s="6" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="Z20" s="9" t="s"/>
+      <x:c r="AA20" s="6" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:27">
+      <x:c r="A21" s="6" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B21" s="6" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C21" s="6" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D21" s="6" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E21" s="6" t="n">
+        <x:v>11008161</x:v>
+      </x:c>
+      <x:c r="F21" s="6" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G21" s="6" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H21" s="6" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I21" s="6" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J21" s="6" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+      <x:c r="K21" s="6" t="n">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="L21" s="6" t="n">
+        <x:v>1944</x:v>
+      </x:c>
+      <x:c r="M21" s="6" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+      <x:c r="N21" s="6" t="n">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="O21" s="6" t="n">
+        <x:v>1944</x:v>
+      </x:c>
+      <x:c r="P21" s="6" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="Q21" s="6" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="R21" s="6" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="S21" s="6" t="n">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="T21" s="6" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+      <x:c r="U21" s="6" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="V21" s="6" t="s"/>
+      <x:c r="W21" s="6" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="X21" s="6" t="s"/>
+      <x:c r="Y21" s="6" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="Z21" s="9" t="s"/>
+      <x:c r="AA21" s="6" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:27">
+      <x:c r="A22" s="6" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B22" s="6" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C22" s="6" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D22" s="6" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E22" s="6" t="n">
+        <x:v>11008160</x:v>
+      </x:c>
+      <x:c r="F22" s="6" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G22" s="6" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H22" s="6" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I22" s="6" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J22" s="6" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+      <x:c r="K22" s="6" t="n">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="L22" s="6" t="n">
+        <x:v>4212</x:v>
+      </x:c>
+      <x:c r="M22" s="6" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+      <x:c r="N22" s="6" t="n">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="O22" s="6" t="n">
+        <x:v>4212</x:v>
+      </x:c>
+      <x:c r="P22" s="6" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="Q22" s="6" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="R22" s="6" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="S22" s="6" t="n">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="T22" s="6" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+      <x:c r="U22" s="6" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="V22" s="6" t="s"/>
+      <x:c r="W22" s="6" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="X22" s="6" t="s"/>
+      <x:c r="Y22" s="6" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="Z22" s="9" t="s"/>
+      <x:c r="AA22" s="6" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:27">
+      <x:c r="A23" s="6" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B23" s="6" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C23" s="6" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D23" s="6" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E23" s="6" t="n">
+        <x:v>11008161</x:v>
+      </x:c>
+      <x:c r="F23" s="6" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G23" s="6" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H23" s="6" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I23" s="6" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J23" s="6" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+      <x:c r="K23" s="6" t="n">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="L23" s="6" t="n">
+        <x:v>1944</x:v>
+      </x:c>
+      <x:c r="M23" s="6" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+      <x:c r="N23" s="6" t="n">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="O23" s="6" t="n">
+        <x:v>1944</x:v>
+      </x:c>
+      <x:c r="P23" s="6" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="Q23" s="6" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="R23" s="6" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="S23" s="6" t="n">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="T23" s="6" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+      <x:c r="U23" s="6" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="V23" s="6" t="s"/>
+      <x:c r="W23" s="6" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="X23" s="6" t="s"/>
+      <x:c r="Y23" s="6" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="Z23" s="9" t="s"/>
+      <x:c r="AA23" s="6" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:27">
+      <x:c r="A24" s="6" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B24" s="6" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C24" s="6" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D24" s="6" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E24" s="6" t="n">
+        <x:v>11008160</x:v>
+      </x:c>
+      <x:c r="F24" s="6" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G24" s="6" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H24" s="6" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I24" s="6" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J24" s="6" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+      <x:c r="K24" s="6" t="n">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="L24" s="6" t="n">
+        <x:v>4212</x:v>
+      </x:c>
+      <x:c r="M24" s="6" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+      <x:c r="N24" s="6" t="n">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="O24" s="6" t="n">
+        <x:v>4212</x:v>
+      </x:c>
+      <x:c r="P24" s="6" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="Q24" s="6" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="R24" s="6" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="S24" s="6" t="n">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="T24" s="6" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+      <x:c r="U24" s="6" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="V24" s="6" t="s"/>
+      <x:c r="W24" s="6" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="X24" s="6" t="s"/>
+      <x:c r="Y24" s="6" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="Z24" s="9" t="s"/>
+      <x:c r="AA24" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:27">
+      <x:c r="A25" s="6" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B25" s="6" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C25" s="6" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D25" s="6" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E25" s="6" t="n">
+        <x:v>11008161</x:v>
+      </x:c>
+      <x:c r="F25" s="6" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G25" s="6" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H25" s="6" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I25" s="6" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J25" s="6" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+      <x:c r="K25" s="6" t="n">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="L25" s="6" t="n">
+        <x:v>1944</x:v>
+      </x:c>
+      <x:c r="M25" s="6" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+      <x:c r="N25" s="6" t="n">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="O25" s="6" t="n">
+        <x:v>1944</x:v>
+      </x:c>
+      <x:c r="P25" s="6" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="Q25" s="6" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="R25" s="6" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="S25" s="6" t="n">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="T25" s="6" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+      <x:c r="U25" s="6" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="V25" s="6" t="s"/>
+      <x:c r="W25" s="6" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="X25" s="6" t="s"/>
+      <x:c r="Y25" s="6" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="Z25" s="9" t="s"/>
+      <x:c r="AA25" s="6" t="s">
+        <x:v>65</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:27">
+      <x:c r="A26" s="6" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B26" s="6" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C26" s="6" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D26" s="6" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E26" s="6" t="n">
+        <x:v>11008160</x:v>
+      </x:c>
+      <x:c r="F26" s="6" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G26" s="6" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H26" s="6" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I26" s="6" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J26" s="6" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+      <x:c r="K26" s="6" t="n">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="L26" s="6" t="n">
+        <x:v>4212</x:v>
+      </x:c>
+      <x:c r="M26" s="6" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+      <x:c r="N26" s="6" t="n">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="O26" s="6" t="n">
+        <x:v>4212</x:v>
+      </x:c>
+      <x:c r="P26" s="6" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="Q26" s="6" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="R26" s="6" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="S26" s="6" t="n">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="T26" s="6" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+      <x:c r="U26" s="6" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="V26" s="6" t="s"/>
+      <x:c r="W26" s="6" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="X26" s="6" t="s"/>
+      <x:c r="Y26" s="6" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="Z26" s="9" t="s"/>
+      <x:c r="AA26" s="6" t="s">
+        <x:v>66</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:27">
+      <x:c r="A27" s="6" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B27" s="6" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C27" s="6" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D27" s="6" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E27" s="6" t="n">
+        <x:v>11008161</x:v>
+      </x:c>
+      <x:c r="F27" s="6" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G27" s="6" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H27" s="6" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I27" s="6" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J27" s="6" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+      <x:c r="K27" s="6" t="n">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="L27" s="6" t="n">
+        <x:v>1944</x:v>
+      </x:c>
+      <x:c r="M27" s="6" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+      <x:c r="N27" s="6" t="n">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="O27" s="6" t="n">
+        <x:v>1944</x:v>
+      </x:c>
+      <x:c r="P27" s="6" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="Q27" s="6" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="R27" s="6" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="S27" s="6" t="n">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="T27" s="6" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+      <x:c r="U27" s="6" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="V27" s="6" t="s"/>
+      <x:c r="W27" s="6" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="X27" s="6" t="s"/>
+      <x:c r="Y27" s="6" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="Z27" s="9" t="s"/>
+      <x:c r="AA27" s="6" t="s">
+        <x:v>67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:27">
+      <x:c r="A28" s="6" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B28" s="6" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C28" s="6" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D28" s="6" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E28" s="6" t="n">
+        <x:v>11008160</x:v>
+      </x:c>
+      <x:c r="F28" s="6" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G28" s="6" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H28" s="6" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I28" s="6" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J28" s="6" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+      <x:c r="K28" s="6" t="n">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="L28" s="6" t="n">
+        <x:v>4212</x:v>
+      </x:c>
+      <x:c r="M28" s="6" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+      <x:c r="N28" s="6" t="n">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="O28" s="6" t="n">
+        <x:v>4212</x:v>
+      </x:c>
+      <x:c r="P28" s="6" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="Q28" s="6" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="R28" s="6" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="S28" s="6" t="n">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="T28" s="6" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+      <x:c r="U28" s="6" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="V28" s="6" t="s"/>
+      <x:c r="W28" s="6" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="X28" s="6" t="s"/>
+      <x:c r="Y28" s="6" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="Z28" s="9" t="s"/>
+      <x:c r="AA28" s="6" t="s">
+        <x:v>68</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:27">
+      <x:c r="A29" s="6" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B29" s="6" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C29" s="6" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D29" s="6" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E29" s="6" t="n">
+        <x:v>11008161</x:v>
+      </x:c>
+      <x:c r="F29" s="6" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G29" s="6" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H29" s="6" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I29" s="6" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J29" s="6" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+      <x:c r="K29" s="6" t="n">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="L29" s="6" t="n">
+        <x:v>1944</x:v>
+      </x:c>
+      <x:c r="M29" s="6" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+      <x:c r="N29" s="6" t="n">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="O29" s="6" t="n">
+        <x:v>1944</x:v>
+      </x:c>
+      <x:c r="P29" s="6" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="Q29" s="6" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="R29" s="6" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="S29" s="6" t="n">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="T29" s="6" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+      <x:c r="U29" s="6" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="V29" s="6" t="s"/>
+      <x:c r="W29" s="6" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="X29" s="6" t="s"/>
+      <x:c r="Y29" s="6" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="Z29" s="9" t="s"/>
+      <x:c r="AA29" s="6" t="s">
+        <x:v>69</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:27">
+      <x:c r="A30" s="6" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B30" s="6" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C30" s="6" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D30" s="6" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E30" s="6" t="n">
+        <x:v>11008160</x:v>
+      </x:c>
+      <x:c r="F30" s="6" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G30" s="6" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H30" s="6" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I30" s="6" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J30" s="6" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+      <x:c r="K30" s="6" t="n">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="L30" s="6" t="n">
+        <x:v>4212</x:v>
+      </x:c>
+      <x:c r="M30" s="6" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+      <x:c r="N30" s="6" t="n">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="O30" s="6" t="n">
+        <x:v>4212</x:v>
+      </x:c>
+      <x:c r="P30" s="6" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="Q30" s="6" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="R30" s="6" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="S30" s="6" t="n">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="T30" s="6" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+      <x:c r="U30" s="6" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="V30" s="6" t="s"/>
+      <x:c r="W30" s="6" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="X30" s="6" t="s"/>
+      <x:c r="Y30" s="6" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="Z30" s="9" t="s"/>
+      <x:c r="AA30" s="6" t="s">
+        <x:v>70</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:27">
+      <x:c r="A31" s="6" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B31" s="6" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C31" s="6" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D31" s="6" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E31" s="6" t="n">
+        <x:v>11008161</x:v>
+      </x:c>
+      <x:c r="F31" s="6" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G31" s="6" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H31" s="6" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I31" s="6" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J31" s="6" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+      <x:c r="K31" s="6" t="n">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="L31" s="6" t="n">
+        <x:v>1944</x:v>
+      </x:c>
+      <x:c r="M31" s="6" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+      <x:c r="N31" s="6" t="n">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="O31" s="6" t="n">
+        <x:v>1944</x:v>
+      </x:c>
+      <x:c r="P31" s="6" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="Q31" s="6" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="R31" s="6" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="S31" s="6" t="n">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="T31" s="6" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+      <x:c r="U31" s="6" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="V31" s="6" t="s"/>
+      <x:c r="W31" s="6" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="X31" s="6" t="s"/>
+      <x:c r="Y31" s="6" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="Z31" s="9" t="s"/>
+      <x:c r="AA31" s="6" t="s">
+        <x:v>71</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
